--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam12-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam12-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Adam12</t>
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.400602666666667</v>
+        <v>4.480363666666666</v>
       </c>
       <c r="H2">
-        <v>10.201808</v>
+        <v>13.441091</v>
       </c>
       <c r="I2">
-        <v>0.04459276058749458</v>
+        <v>0.05823429740900917</v>
       </c>
       <c r="J2">
-        <v>0.04516209424246568</v>
+        <v>0.05886574272937452</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>470.028190168761</v>
+        <v>546.285092138083</v>
       </c>
       <c r="R2">
-        <v>4230.253711518849</v>
+        <v>4916.565829242747</v>
       </c>
       <c r="S2">
-        <v>0.01002990918118222</v>
+        <v>0.01329041858673751</v>
       </c>
       <c r="T2">
-        <v>0.01118483976063339</v>
+        <v>0.01424386403870616</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.400602666666667</v>
+        <v>4.480363666666666</v>
       </c>
       <c r="H3">
-        <v>10.201808</v>
+        <v>13.441091</v>
       </c>
       <c r="I3">
-        <v>0.04459276058749458</v>
+        <v>0.05823429740900917</v>
       </c>
       <c r="J3">
-        <v>0.04516209424246568</v>
+        <v>0.05886574272937452</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
-        <v>502.9978650362135</v>
+        <v>662.7099899113432</v>
       </c>
       <c r="R3">
-        <v>4526.980785325921</v>
+        <v>5964.389909202089</v>
       </c>
       <c r="S3">
-        <v>0.01073344750413882</v>
+        <v>0.01612288765388467</v>
       </c>
       <c r="T3">
-        <v>0.01196938957714597</v>
+        <v>0.01727953248082321</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.400602666666667</v>
+        <v>4.480363666666666</v>
       </c>
       <c r="H4">
-        <v>10.201808</v>
+        <v>13.441091</v>
       </c>
       <c r="I4">
-        <v>0.04459276058749458</v>
+        <v>0.05823429740900917</v>
       </c>
       <c r="J4">
-        <v>0.04516209424246568</v>
+        <v>0.05886574272937452</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>252.5716605640463</v>
+        <v>374.1326305871809</v>
       </c>
       <c r="R4">
-        <v>2273.144945076416</v>
+        <v>3367.193675284628</v>
       </c>
       <c r="S4">
-        <v>0.005389614644790156</v>
+        <v>0.009102169067070228</v>
       </c>
       <c r="T4">
-        <v>0.006010221536864959</v>
+        <v>0.009755152390613404</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.400602666666667</v>
+        <v>4.480363666666666</v>
       </c>
       <c r="H5">
-        <v>10.201808</v>
+        <v>13.441091</v>
       </c>
       <c r="I5">
-        <v>0.04459276058749458</v>
+        <v>0.05823429740900917</v>
       </c>
       <c r="J5">
-        <v>0.04516209424246568</v>
+        <v>0.05886574272937452</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>575.5727297068881</v>
+        <v>408.0198305641958</v>
       </c>
       <c r="R5">
-        <v>3453.436378241329</v>
+        <v>2448.118983385175</v>
       </c>
       <c r="S5">
-        <v>0.0122821190874796</v>
+        <v>0.009926601362420457</v>
       </c>
       <c r="T5">
-        <v>0.009130925743057359</v>
+        <v>0.007092485926357422</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.400602666666667</v>
+        <v>4.480363666666666</v>
       </c>
       <c r="H6">
-        <v>10.201808</v>
+        <v>13.441091</v>
       </c>
       <c r="I6">
-        <v>0.04459276058749458</v>
+        <v>0.05823429740900917</v>
       </c>
       <c r="J6">
-        <v>0.04516209424246568</v>
+        <v>0.05886574272937452</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>288.5647829240766</v>
+        <v>402.49629262411</v>
       </c>
       <c r="R6">
-        <v>2597.083046316689</v>
+        <v>3622.46663361699</v>
       </c>
       <c r="S6">
-        <v>0.006157670169903799</v>
+        <v>0.009792220738896299</v>
       </c>
       <c r="T6">
-        <v>0.006866717624763998</v>
+        <v>0.01049470789287432</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>209.86536</v>
       </c>
       <c r="I7">
-        <v>0.9173350208206587</v>
+        <v>0.90925370493279</v>
       </c>
       <c r="J7">
-        <v>0.9290470048592353</v>
+        <v>0.9191129120074827</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N7">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O7">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P7">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q7">
-        <v>9669.132700783575</v>
+        <v>8529.539568193681</v>
       </c>
       <c r="R7">
-        <v>87022.19430705217</v>
+        <v>76765.85611374311</v>
       </c>
       <c r="S7">
-        <v>0.2063291625441404</v>
+        <v>0.2075128039276246</v>
       </c>
       <c r="T7">
-        <v>0.230087688663386</v>
+        <v>0.2223996291874017</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>209.86536</v>
       </c>
       <c r="I8">
-        <v>0.9173350208206587</v>
+        <v>0.90925370493279</v>
       </c>
       <c r="J8">
-        <v>0.9290470048592353</v>
+        <v>0.9191129120074827</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P8">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q8">
         <v>10347.3647048696</v>
@@ -948,10 +948,10 @@
         <v>93126.2823438264</v>
       </c>
       <c r="S8">
-        <v>0.2208019230020006</v>
+        <v>0.2517381678110848</v>
       </c>
       <c r="T8">
-        <v>0.2462269680617382</v>
+        <v>0.2697976901368838</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>209.86536</v>
       </c>
       <c r="I9">
-        <v>0.9173350208206587</v>
+        <v>0.90925370493279</v>
       </c>
       <c r="J9">
-        <v>0.9290470048592353</v>
+        <v>0.9191129120074827</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N9">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O9">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P9">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q9">
-        <v>5195.749858267413</v>
+        <v>5841.600150309654</v>
       </c>
       <c r="R9">
-        <v>46761.74872440672</v>
+        <v>52574.40135278688</v>
       </c>
       <c r="S9">
-        <v>0.110871858957761</v>
+        <v>0.1421186708758655</v>
       </c>
       <c r="T9">
-        <v>0.1236386046977083</v>
+        <v>0.152314166187175</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>209.86536</v>
       </c>
       <c r="I10">
-        <v>0.9173350208206587</v>
+        <v>0.90925370493279</v>
       </c>
       <c r="J10">
-        <v>0.9290470048592353</v>
+        <v>0.9191129120074827</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N10">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O10">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P10">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q10">
-        <v>11840.33047143396</v>
+        <v>6370.705222403001</v>
       </c>
       <c r="R10">
-        <v>71041.98282860377</v>
+        <v>38224.23133441801</v>
       </c>
       <c r="S10">
-        <v>0.2526602484438814</v>
+        <v>0.1549911215169111</v>
       </c>
       <c r="T10">
-        <v>0.1878358246106965</v>
+        <v>0.1107400516989234</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>209.86536</v>
       </c>
       <c r="I11">
-        <v>0.9173350208206587</v>
+        <v>0.90925370493279</v>
       </c>
       <c r="J11">
-        <v>0.9290470048592353</v>
+        <v>0.9191129120074827</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N11">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O11">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P11">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q11">
-        <v>5936.178376586108</v>
+        <v>6284.4622769256</v>
       </c>
       <c r="R11">
-        <v>53425.60538927497</v>
+        <v>56560.1604923304</v>
       </c>
       <c r="S11">
-        <v>0.1266718278728753</v>
+        <v>0.1528929408013039</v>
       </c>
       <c r="T11">
-        <v>0.1412579188257063</v>
+        <v>0.1638613747970987</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.01928366666666667</v>
+        <v>0.02020466666666667</v>
       </c>
       <c r="H12">
-        <v>0.057851</v>
+        <v>0.060614</v>
       </c>
       <c r="I12">
-        <v>0.0002528704512716912</v>
+        <v>0.0002626136303332581</v>
       </c>
       <c r="J12">
-        <v>0.0002560989497176267</v>
+        <v>0.0002654611987820265</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N12">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O12">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P12">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q12">
-        <v>2.665370768539556</v>
+        <v>2.463529528582</v>
       </c>
       <c r="R12">
-        <v>23.988336916856</v>
+        <v>22.171765757238</v>
       </c>
       <c r="S12">
-        <v>5.687621998380803E-05</v>
+        <v>5.993452705710478E-05</v>
       </c>
       <c r="T12">
-        <v>6.34254403721774E-05</v>
+        <v>6.423418864154223E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.01928366666666667</v>
+        <v>0.02020466666666667</v>
       </c>
       <c r="H13">
-        <v>0.057851</v>
+        <v>0.060614</v>
       </c>
       <c r="I13">
-        <v>0.0002528704512716912</v>
+        <v>0.0002626136303332581</v>
       </c>
       <c r="J13">
-        <v>0.0002560989497176267</v>
+        <v>0.0002654611987820265</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P13">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q13">
-        <v>2.852330634943334</v>
+        <v>2.988559732873333</v>
       </c>
       <c r="R13">
-        <v>25.67097571449</v>
+        <v>26.89703759586</v>
       </c>
       <c r="S13">
-        <v>6.086574767550366E-05</v>
+        <v>7.27078413688714E-05</v>
       </c>
       <c r="T13">
-        <v>6.787435682258195E-05</v>
+        <v>7.792385170166755E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.01928366666666667</v>
+        <v>0.02020466666666667</v>
       </c>
       <c r="H14">
-        <v>0.057851</v>
+        <v>0.060614</v>
       </c>
       <c r="I14">
-        <v>0.0002528704512716912</v>
+        <v>0.0002626136303332581</v>
       </c>
       <c r="J14">
-        <v>0.0002560989497176267</v>
+        <v>0.0002654611987820265</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N14">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O14">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P14">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q14">
-        <v>1.432248395116889</v>
+        <v>1.687190070390222</v>
       </c>
       <c r="R14">
-        <v>12.890235556052</v>
+        <v>15.184710633512</v>
       </c>
       <c r="S14">
-        <v>3.056268034212713E-05</v>
+        <v>4.104717956536377E-05</v>
       </c>
       <c r="T14">
-        <v>3.408193196041081E-05</v>
+        <v>4.399187588303962E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.01928366666666667</v>
+        <v>0.02020466666666667</v>
       </c>
       <c r="H15">
-        <v>0.057851</v>
+        <v>0.060614</v>
       </c>
       <c r="I15">
-        <v>0.0002528704512716912</v>
+        <v>0.0002626136303332581</v>
       </c>
       <c r="J15">
-        <v>0.0002560989497176267</v>
+        <v>0.0002654611987820265</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N15">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O15">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P15">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q15">
-        <v>3.263878126923501</v>
+        <v>1.840007928658334</v>
       </c>
       <c r="R15">
-        <v>19.583268761541</v>
+        <v>11.04004757195</v>
       </c>
       <c r="S15">
-        <v>6.964774002115921E-05</v>
+        <v>4.476504288095018E-05</v>
       </c>
       <c r="T15">
-        <v>5.177838919940575E-05</v>
+        <v>3.198430409705796E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.01928366666666667</v>
+        <v>0.02020466666666667</v>
       </c>
       <c r="H16">
-        <v>0.057851</v>
+        <v>0.060614</v>
       </c>
       <c r="I16">
-        <v>0.0002528704512716912</v>
+        <v>0.0002626136303332581</v>
       </c>
       <c r="J16">
-        <v>0.0002560989497176267</v>
+        <v>0.0002654611987820265</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N16">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O16">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P16">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q16">
-        <v>1.636353208856778</v>
+        <v>1.81509895894</v>
       </c>
       <c r="R16">
-        <v>14.727178879711</v>
+        <v>16.33589063046</v>
       </c>
       <c r="S16">
-        <v>3.491806324909317E-05</v>
+        <v>4.415903946096788E-05</v>
       </c>
       <c r="T16">
-        <v>3.893883136305074E-05</v>
+        <v>4.732697845871916E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.8840685</v>
+        <v>2.4758755</v>
       </c>
       <c r="H17">
-        <v>5.768136999999999</v>
+        <v>4.951751</v>
       </c>
       <c r="I17">
-        <v>0.03781934814057506</v>
+        <v>0.03218061767783864</v>
       </c>
       <c r="J17">
-        <v>0.02553480194858139</v>
+        <v>0.02168637206800571</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N17">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O17">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P17">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q17">
-        <v>398.6333101086786</v>
+        <v>301.8803776359945</v>
       </c>
       <c r="R17">
-        <v>2391.799860652072</v>
+        <v>1811.282265815967</v>
       </c>
       <c r="S17">
-        <v>0.00850641723329093</v>
+        <v>0.007344364031978066</v>
       </c>
       <c r="T17">
-        <v>0.006323946506578109</v>
+        <v>0.005247495757414876</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.8840685</v>
+        <v>2.4758755</v>
       </c>
       <c r="H18">
-        <v>5.768136999999999</v>
+        <v>4.951751</v>
       </c>
       <c r="I18">
-        <v>0.03781934814057506</v>
+        <v>0.03218061767783864</v>
       </c>
       <c r="J18">
-        <v>0.02553480194858139</v>
+        <v>0.02168637206800571</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P18">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q18">
-        <v>426.595059851605</v>
+        <v>366.2174657459149</v>
       </c>
       <c r="R18">
-        <v>2559.57035910963</v>
+        <v>2197.30479447549</v>
       </c>
       <c r="S18">
-        <v>0.009103091680344417</v>
+        <v>0.00890960321558098</v>
       </c>
       <c r="T18">
-        <v>0.006767533645737106</v>
+        <v>0.006365847998607317</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.8840685</v>
+        <v>2.4758755</v>
       </c>
       <c r="H19">
-        <v>5.768136999999999</v>
+        <v>4.951751</v>
       </c>
       <c r="I19">
-        <v>0.03781934814057506</v>
+        <v>0.03218061767783864</v>
       </c>
       <c r="J19">
-        <v>0.02553480194858139</v>
+        <v>0.02168637206800571</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N19">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O19">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P19">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q19">
-        <v>214.2073160636206</v>
+        <v>206.7479077006513</v>
       </c>
       <c r="R19">
-        <v>1285.243896381724</v>
+        <v>1240.487446203908</v>
       </c>
       <c r="S19">
-        <v>0.004570959723270025</v>
+        <v>0.005029912539841528</v>
       </c>
       <c r="T19">
-        <v>0.003398199733320567</v>
+        <v>0.003593836661426688</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.8840685</v>
+        <v>2.4758755</v>
       </c>
       <c r="H20">
-        <v>5.768136999999999</v>
+        <v>4.951751</v>
       </c>
       <c r="I20">
-        <v>0.03781934814057506</v>
+        <v>0.03218061767783864</v>
       </c>
       <c r="J20">
-        <v>0.02553480194858139</v>
+        <v>0.02168637206800571</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N20">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O20">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P20">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q20">
-        <v>488.1461734645417</v>
+        <v>225.4741751264188</v>
       </c>
       <c r="R20">
-        <v>1952.584693858167</v>
+        <v>901.8967005056751</v>
       </c>
       <c r="S20">
-        <v>0.01041652796448884</v>
+        <v>0.00548549870947606</v>
       </c>
       <c r="T20">
-        <v>0.005162656523508542</v>
+        <v>0.002612899821772376</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,13 +1703,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.8840685</v>
+        <v>2.4758755</v>
       </c>
       <c r="H21">
-        <v>5.768136999999999</v>
+        <v>4.951751</v>
       </c>
       <c r="I21">
-        <v>0.03781934814057506</v>
+        <v>0.03218061767783864</v>
       </c>
       <c r="J21">
-        <v>0.02553480194858139</v>
+        <v>0.02168637206800571</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N21">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O21">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P21">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q21">
-        <v>244.7332670759929</v>
+        <v>222.421835344065</v>
       </c>
       <c r="R21">
-        <v>1468.399602455957</v>
+        <v>1334.53101206439</v>
       </c>
       <c r="S21">
-        <v>0.005222351539180856</v>
+        <v>0.005411239180962001</v>
       </c>
       <c r="T21">
-        <v>0.00388246553943706</v>
+        <v>0.003866291828784456</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.005290666666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.015872</v>
+      </c>
+      <c r="I22">
+        <v>6.876635002886251E-05</v>
+      </c>
+      <c r="J22">
+        <v>6.951199635510484E-05</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>121.928739</v>
+      </c>
+      <c r="N22">
+        <v>365.786217</v>
+      </c>
+      <c r="O22">
+        <v>0.2282232151508951</v>
+      </c>
+      <c r="P22">
+        <v>0.2419720431319445</v>
+      </c>
+      <c r="Q22">
+        <v>0.645084315136</v>
+      </c>
+      <c r="R22">
+        <v>5.805758836223999</v>
+      </c>
+      <c r="S22">
+        <v>1.569407749777885E-05</v>
+      </c>
+      <c r="T22">
+        <v>1.6819959780225E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.005290666666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.015872</v>
+      </c>
+      <c r="I23">
+        <v>6.876635002886251E-05</v>
+      </c>
+      <c r="J23">
+        <v>6.951199635510484E-05</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>147.91433</v>
+      </c>
+      <c r="N23">
+        <v>443.74299</v>
+      </c>
+      <c r="O23">
+        <v>0.2768624053389947</v>
+      </c>
+      <c r="P23">
+        <v>0.2935413991166814</v>
+      </c>
+      <c r="Q23">
+        <v>0.7825654152533332</v>
+      </c>
+      <c r="R23">
+        <v>7.04308873728</v>
+      </c>
+      <c r="S23">
+        <v>1.903881707537412E-05</v>
+      </c>
+      <c r="T23">
+        <v>2.040464866547114E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.005290666666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.015872</v>
+      </c>
+      <c r="I24">
+        <v>6.876635002886251E-05</v>
+      </c>
+      <c r="J24">
+        <v>6.951199635510484E-05</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>83.50496933333334</v>
+      </c>
+      <c r="N24">
+        <v>250.514908</v>
+      </c>
+      <c r="O24">
+        <v>0.1563025480180701</v>
+      </c>
+      <c r="P24">
+        <v>0.1657186665504434</v>
+      </c>
+      <c r="Q24">
+        <v>0.4417969577528889</v>
+      </c>
+      <c r="R24">
+        <v>3.976172619776</v>
+      </c>
+      <c r="S24">
+        <v>1.07483557274137E-05</v>
+      </c>
+      <c r="T24">
+        <v>1.151943534522726E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.005290666666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.015872</v>
+      </c>
+      <c r="I25">
+        <v>6.876635002886251E-05</v>
+      </c>
+      <c r="J25">
+        <v>6.951199635510484E-05</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>91.06846250000001</v>
+      </c>
+      <c r="N25">
+        <v>182.136925</v>
+      </c>
+      <c r="O25">
+        <v>0.1704597085236707</v>
+      </c>
+      <c r="P25">
+        <v>0.1204857969594293</v>
+      </c>
+      <c r="Q25">
+        <v>0.4818128789333334</v>
+      </c>
+      <c r="R25">
+        <v>2.890877273600001</v>
+      </c>
+      <c r="S25">
+        <v>1.172189198215662E-05</v>
+      </c>
+      <c r="T25">
+        <v>8.375208279085754E-06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.005290666666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.015872</v>
+      </c>
+      <c r="I26">
+        <v>6.876635002886251E-05</v>
+      </c>
+      <c r="J26">
+        <v>6.951199635510484E-05</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>89.83562999999999</v>
+      </c>
+      <c r="N26">
+        <v>269.50689</v>
+      </c>
+      <c r="O26">
+        <v>0.1681521229683693</v>
+      </c>
+      <c r="P26">
+        <v>0.1782820942415013</v>
+      </c>
+      <c r="Q26">
+        <v>0.4752903731199999</v>
+      </c>
+      <c r="R26">
+        <v>4.27761335808</v>
+      </c>
+      <c r="S26">
+        <v>1.156320774613921E-05</v>
+      </c>
+      <c r="T26">
+        <v>1.23927442850957E-05</v>
       </c>
     </row>
   </sheetData>
